--- a/src/main/resources/static/excel/skillsheetTemplate.xlsx
+++ b/src/main/resources/static/excel/skillsheetTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_rfujii\resumeSystem\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Style2309001\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9449BC-820D-4727-A91E-FF4913E28FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA899D53-0A1E-4ABC-B2C2-9E46BE273C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KY" sheetId="1" r:id="rId1"/>
@@ -1033,6 +1033,72 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1042,14 +1108,104 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1060,6 +1216,42 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="55" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1069,6 +1261,102 @@
     <xf numFmtId="55" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1105,299 +1393,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" textRotation="255" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1747,8 +1747,8 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2460,219 +2460,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="11"/>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="126"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="29">
         <f ca="1">NOW()-I1</f>
-        <v>45583.731942824073</v>
+        <v>45588.407460185183</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="133"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="13"/>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="133"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="138"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="12"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="138"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="16"/>
       <c r="M5" s="24"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="146" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="149"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="142"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="114"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="142"/>
-      <c r="B8" s="115" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="114"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="142"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="142"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="142"/>
-      <c r="B11" s="115" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="143"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2691,605 +2691,713 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="107" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="108"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="109"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="111" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="110"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="56" t="str">
-        <f t="shared" ref="E18" si="0">IF(B18 = "","", DATEDIF(B18,B19,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="56" t="str">
-        <f t="shared" ref="E20" si="1">IF(B20 = "","", DATEDIF(B20,B21,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="56" t="str">
-        <f t="shared" ref="E22" si="2">IF(B22 = "","", DATEDIF(B22,B23,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="90"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="56" t="str">
-        <f t="shared" ref="E24" si="3">IF(B24 = "","", DATEDIF(B24,B25,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="94"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="116"/>
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="96"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="118"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="56" t="str">
-        <f t="shared" ref="E26" si="4">IF(B26 = "","", DATEDIF(B26,B27,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="116"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="118"/>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="56" t="str">
-        <f t="shared" ref="E28" si="5">IF(B28 = "","", DATEDIF(B28,B29,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56" t="str">
-        <f t="shared" ref="E30" si="6">IF(B30 = "","", DATEDIF(B30,B31,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="102"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="str">
-        <f t="shared" ref="E32" si="7">IF(B32 = "","", DATEDIF(B32,B33,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56" t="str">
-        <f t="shared" ref="E34" si="8">IF(B34 = "","", DATEDIF(B34,B35,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="99"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="str">
-        <f t="shared" ref="E36" si="9">IF(B36 = "","", DATEDIF(B36,B37,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="99"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="102"/>
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56" t="str">
-        <f t="shared" ref="E38" si="10">IF(B38 = "","", DATEDIF(B38,B39,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="75"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="132"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="63"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
     </row>
     <row r="39" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="99"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="102"/>
     </row>
     <row r="40" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56" t="str">
-        <f t="shared" ref="E40" si="11">IF(B40 = "","", DATEDIF(B40,B41,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="132"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="63"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
     </row>
     <row r="41" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="102"/>
     </row>
     <row r="42" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56" t="str">
-        <f t="shared" ref="E42" si="12">IF(B42 = "","", DATEDIF(B42,B43,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="132"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="63"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="100"/>
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="102"/>
     </row>
     <row r="44" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56" t="str">
-        <f t="shared" ref="E44" si="13">IF(B44 = "","", DATEDIF(B44,B45,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="63"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
     </row>
     <row r="45" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="137"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="65"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="102"/>
     </row>
     <row r="46" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56" t="str">
-        <f t="shared" ref="E46" si="14">IF(B46 = "","", DATEDIF(B46,B47,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="122"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="63"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
     </row>
     <row r="47" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="137"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="102"/>
     </row>
     <row r="48" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56" t="str">
-        <f t="shared" ref="E48" si="15">IF(B48 = "","", DATEDIF(B48,B49,"m") &amp; "ヶ月")</f>
-        <v/>
-      </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="122"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="63"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="100"/>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="99"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="102"/>
     </row>
     <row r="50" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="99"/>
-      <c r="B50" s="42" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="146"/>
     </row>
     <row r="51" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="100"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="E50:L51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A14:A51"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:K1"/>
@@ -3314,162 +3422,6 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A14:A51"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="E50:L51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:E45"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,8 +3436,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4213,608 +4165,677 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="107" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="109"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="111" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="110"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="56" t="str">
-        <f>IF(AND(ISNUMBER(B4), ISNUMBER(B5)),DATEDIF(B4,B5,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="56" t="str">
-        <f t="shared" ref="E6" si="0">IF(AND(ISNUMBER(B6), ISNUMBER(B7)),DATEDIF(B6,B7,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="56" t="str">
-        <f t="shared" ref="E8" si="1">IF(AND(ISNUMBER(B8), ISNUMBER(B9)),DATEDIF(B8,B9,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="56" t="str">
-        <f t="shared" ref="E10" si="2">IF(AND(ISNUMBER(B10), ISNUMBER(B11)),DATEDIF(B10,B11,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="56" t="str">
-        <f t="shared" ref="E12" si="3">IF(AND(ISNUMBER(B12), ISNUMBER(B13)),DATEDIF(B12,B13,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="56" t="str">
-        <f t="shared" ref="E14" si="4">IF(AND(ISNUMBER(B14), ISNUMBER(B15)),DATEDIF(B14,B15,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="56" t="str">
-        <f t="shared" ref="E16" si="5">IF(AND(ISNUMBER(B16), ISNUMBER(B17)),DATEDIF(B16,B17,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="str">
-        <f t="shared" ref="E18" si="6">IF(AND(ISNUMBER(B18), ISNUMBER(B19)),DATEDIF(B18,B19,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="130"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56" t="str">
-        <f t="shared" ref="E20" si="7">IF(AND(ISNUMBER(B20), ISNUMBER(B21)),DATEDIF(B20,B21,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="str">
-        <f t="shared" ref="E22" si="8">IF(AND(ISNUMBER(B22), ISNUMBER(B23)),DATEDIF(B22,B23,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="99"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56" t="str">
-        <f t="shared" ref="E24" si="9">IF(AND(ISNUMBER(B24), ISNUMBER(B25)),DATEDIF(B24,B25,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56" t="str">
-        <f t="shared" ref="E26" si="10">IF(AND(ISNUMBER(B26), ISNUMBER(B27)),DATEDIF(B26,B27,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="102"/>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="str">
-        <f t="shared" ref="E28" si="11">IF(AND(ISNUMBER(B28), ISNUMBER(B29)),DATEDIF(B28,B29,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="134"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56" t="str">
-        <f t="shared" ref="E30" si="12">IF(AND(ISNUMBER(B30), ISNUMBER(B31)),DATEDIF(B30,B31,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="102"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="str">
-        <f t="shared" ref="E32" si="13">IF(AND(ISNUMBER(B32), ISNUMBER(B33)),DATEDIF(B32,B33,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56" t="str">
-        <f t="shared" ref="E34" si="14">IF(AND(ISNUMBER(B34), ISNUMBER(B35)),DATEDIF(B34,B35,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
     </row>
     <row r="36" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="str">
-        <f t="shared" ref="E36" si="15">IF(AND(ISNUMBER(B36), ISNUMBER(B37)),DATEDIF(B36,B37,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="102"/>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="99"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="146"/>
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="100"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:L39"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="F2:G2"/>
@@ -4839,126 +4860,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:L39"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4973,8 +4874,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5702,608 +5603,677 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="107" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="109"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="111" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="111"/>
+      <c r="G3" s="87"/>
       <c r="H3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="110"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="56" t="str">
-        <f>IF(AND(ISNUMBER(B4), ISNUMBER(B5)),DATEDIF(B4,B5,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="56" t="str">
-        <f t="shared" ref="E6" si="0">IF(AND(ISNUMBER(B6), ISNUMBER(B7)),DATEDIF(B6,B7,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="56" t="str">
-        <f t="shared" ref="E8" si="1">IF(AND(ISNUMBER(B8), ISNUMBER(B9)),DATEDIF(B8,B9,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="99"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="56" t="str">
-        <f t="shared" ref="E10" si="2">IF(AND(ISNUMBER(B10), ISNUMBER(B11)),DATEDIF(B10,B11,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="90"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="56" t="str">
-        <f t="shared" ref="E12" si="3">IF(AND(ISNUMBER(B12), ISNUMBER(B13)),DATEDIF(B12,B13,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="56" t="str">
-        <f t="shared" ref="E14" si="4">IF(AND(ISNUMBER(B14), ISNUMBER(B15)),DATEDIF(B14,B15,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="56" t="str">
-        <f t="shared" ref="E16" si="5">IF(AND(ISNUMBER(B16), ISNUMBER(B17)),DATEDIF(B16,B17,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="27"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56" t="str">
-        <f t="shared" ref="E18" si="6">IF(AND(ISNUMBER(B18), ISNUMBER(B19)),DATEDIF(B18,B19,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="130"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56" t="str">
-        <f t="shared" ref="E20" si="7">IF(AND(ISNUMBER(B20), ISNUMBER(B21)),DATEDIF(B20,B21,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56" t="str">
-        <f t="shared" ref="E22" si="8">IF(AND(ISNUMBER(B22), ISNUMBER(B23)),DATEDIF(B22,B23,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="130"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
     </row>
     <row r="24" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="99"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56" t="str">
-        <f t="shared" ref="E24" si="9">IF(AND(ISNUMBER(B24), ISNUMBER(B25)),DATEDIF(B24,B25,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
     </row>
     <row r="25" spans="1:12" s="7" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="99"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="130"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56" t="str">
-        <f t="shared" ref="E26" si="10">IF(AND(ISNUMBER(B26), ISNUMBER(B27)),DATEDIF(B26,B27,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="75"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="102"/>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56" t="str">
-        <f t="shared" ref="E28" si="11">IF(AND(ISNUMBER(B28), ISNUMBER(B29)),DATEDIF(B28,B29,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="75"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="134"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56" t="str">
-        <f t="shared" ref="E30" si="12">IF(AND(ISNUMBER(B30), ISNUMBER(B31)),DATEDIF(B30,B31,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="132"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="102"/>
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56" t="str">
-        <f t="shared" ref="E32" si="13">IF(AND(ISNUMBER(B32), ISNUMBER(B33)),DATEDIF(B32,B33,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56" t="str">
-        <f t="shared" ref="E34" si="14">IF(AND(ISNUMBER(B34), ISNUMBER(B35)),DATEDIF(B34,B35,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="63"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
     </row>
     <row r="36" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56" t="str">
-        <f t="shared" ref="E36" si="15">IF(AND(ISNUMBER(B36), ISNUMBER(B37)),DATEDIF(B36,B37,"m")&amp; " ヶ月 ","")</f>
-        <v/>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="122"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="63"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
     </row>
     <row r="37" spans="1:12" s="3" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="102"/>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="99"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="146"/>
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="100"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:L39"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="F2:G2"/>
@@ -6328,126 +6298,6 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:L39"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
